--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE900F1D-B982-4D89-8144-488C3A4B3E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33C233-CCC7-4EC8-852E-A22338443BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
+    <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>יום שישי 01 ינואר 1905</t>
-  </si>
-  <si>
     <t>1.5 hours Money Manager</t>
   </si>
   <si>
     <t>1.25 hours Excel programming</t>
+  </si>
+  <si>
+    <t>6 -8 hours Money manager</t>
+  </si>
+  <si>
+    <t>1 hours algorithms 1</t>
   </si>
 </sst>
 </file>
@@ -78,7 +78,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -86,14 +86,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -178,12 +178,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="H6:L15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="H6:L15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{290997B3-2EC0-4908-A8CA-D96066103221}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B5C3F461-1CDE-48BC-B6CE-2EBDC1C613A8}" name="Column2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5F1D165A-F8A7-413C-BCC4-002057DE39D8}" name="Column3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{FC6F4446-EC20-4D6D-9E4F-4A46EE295959}" name="Column4" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{290997B3-2EC0-4908-A8CA-D96066103221}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B5C3F461-1CDE-48BC-B6CE-2EBDC1C613A8}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5F1D165A-F8A7-413C-BCC4-002057DE39D8}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FC6F4446-EC20-4D6D-9E4F-4A46EE295959}" name="Column4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{1E05D8CE-BFB1-4F6E-99D7-F6BE047E5C12}" name="Column5" dataDxfId="0">
       <calculatedColumnFormula array="1">myDate(2022,1,26)</calculatedColumnFormula>
     </tableColumn>
@@ -493,57 +493,64 @@
   <dimension ref="D6:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="12" width="20.625" customWidth="1"/>
+    <col min="8" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="str" cm="1">
         <f t="array" ref="L7">myDate(2022,1,26)</f>
         <v>Year 2022 Month 1 Day 26</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="str" cm="1">
+        <f t="array" ref="L8">myDate(2022,1,27)</f>
+        <v>Year 2022 Month 1 Day 27</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" cm="1">
         <f t="array" ref="D11">Add(1,2)</f>
         <v>3</v>
@@ -554,28 +561,28 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33C233-CCC7-4EC8-852E-A22338443BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC234B-8072-4D7C-9639-C30D2929ED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>1 hours algorithms 1</t>
+  </si>
+  <si>
+    <t>2.5 hours Money manager</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="D6:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +542,14 @@
     <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="str" cm="1">
+        <f t="array" ref="L9">myDate(2022,1,28)</f>
+        <v>Year 2022 Month 1 Day 28</v>
+      </c>
     </row>
     <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC234B-8072-4D7C-9639-C30D2929ED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0165CBC-14D7-450F-975D-4BED0EC0B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>2.5 hours Money manager</t>
+  </si>
+  <si>
+    <t>2 hours Algorithms 1</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="D6:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,9 @@
     <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0165CBC-14D7-450F-975D-4BED0EC0B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A9E76-78A2-482E-8C65-429490A76687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>2 hours Algorithms 1</t>
+  </si>
+  <si>
+    <t>1.5 hours bjj</t>
   </si>
 </sst>
 </file>
@@ -544,9 +547,11 @@
     </row>
     <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A9E76-78A2-482E-8C65-429490A76687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864D340-470F-4F94-A415-9565735D632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -73,10 +73,10 @@
     <t>2.5 hours Money manager</t>
   </si>
   <si>
-    <t>2 hours Algorithms 1</t>
+    <t>1.5 hours bjj</t>
   </si>
   <si>
-    <t>1.5 hours bjj</t>
+    <t>4.666 hours Algorithms 1</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="D6:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
     <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864D340-470F-4F94-A415-9565735D632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E7102-054A-46C1-A4CF-74FAC0549255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>4.666 hours Algorithms 1</t>
+  </si>
+  <si>
+    <t>1 hour Money manager</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -143,6 +146,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +508,7 @@
   <dimension ref="D6:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +571,13 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="4">
+        <f>DATE(2022,1,29)</f>
+        <v>43128</v>
+      </c>
     </row>
     <row r="11" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" cm="1">

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E7102-054A-46C1-A4CF-74FAC0549255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382AA29-50F9-41D4-971F-9F6ED5DF1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>1 hour Money manager</t>
+  </si>
+  <si>
+    <t>1 hour probability</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="D6:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +573,9 @@
     <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K10" s="3" t="s">
         <v>7</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382AA29-50F9-41D4-971F-9F6ED5DF1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0586199-5996-4415-BD55-2683DE786826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>1 hour probability</t>
+  </si>
+  <si>
+    <t>3 hours Linear Algebra</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,9 @@
     </row>
     <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0586199-5996-4415-BD55-2683DE786826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2F03D5-30F5-4146-A53B-00EE9D44D6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>3 hours Linear Algebra</t>
+  </si>
+  <si>
+    <t>1.5 hours Algorithms</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,9 @@
       </c>
     </row>
     <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2F03D5-30F5-4146-A53B-00EE9D44D6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28641B-6257-4E34-BF50-D876E5A10C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
+    <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -79,9 +79,6 @@
     <t>4.666 hours Algorithms 1</t>
   </si>
   <si>
-    <t>1 hour Money manager</t>
-  </si>
-  <si>
     <t>1 hour probability</t>
   </si>
   <si>
@@ -89,6 +86,12 @@
   </si>
   <si>
     <t>1.5 hours Algorithms</t>
+  </si>
+  <si>
+    <t>2.666 hour Money manager</t>
+  </si>
+  <si>
+    <t>0.666 Hours DataBases</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,37 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -202,13 +235,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="H6:L15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{290997B3-2EC0-4908-A8CA-D96066103221}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B5C3F461-1CDE-48BC-B6CE-2EBDC1C613A8}" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5F1D165A-F8A7-413C-BCC4-002057DE39D8}" name="Column3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FC6F4446-EC20-4D6D-9E4F-4A46EE295959}" name="Column4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{1E05D8CE-BFB1-4F6E-99D7-F6BE047E5C12}" name="Column5" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="10">
+    <tableColumn id="6" xr3:uid="{AD9BA03C-0A3F-4580-8EA2-B2CC68A526CB}" name="Column6" headerRowDxfId="8" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D23052A7-1FBF-405C-AEB7-496D2C97F35D}" name="Column7" headerRowDxfId="6" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{15BE08F2-9836-4D4D-9565-1CE57B5771EC}" name="Column8" headerRowDxfId="4" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BA90206F-3559-4AE5-96CC-E5B3C6B4DE85}" name="Column9" headerRowDxfId="2" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{FC60D3D3-DADF-4796-9C52-F0286D2C6C1B}" name="Column10" headerRowDxfId="0" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{290997B3-2EC0-4908-A8CA-D96066103221}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B5C3F461-1CDE-48BC-B6CE-2EBDC1C613A8}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5F1D165A-F8A7-413C-BCC4-002057DE39D8}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{FC6F4446-EC20-4D6D-9E4F-4A46EE295959}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1E05D8CE-BFB1-4F6E-99D7-F6BE047E5C12}" name="Column5" dataDxfId="10">
       <calculatedColumnFormula array="1">myDate(2022,1,26)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -514,124 +552,177 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CCEF79-7962-42CF-8F4C-74587427471D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D6:L15"/>
+  <dimension ref="D6:V15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3" t="s">
+    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="str" cm="1">
-        <f t="array" ref="L7">myDate(2022,1,26)</f>
-        <v>Year 2022 Month 1 Day 26</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3" t="s">
+      <c r="V7" s="4">
+        <f>DATE(2022,1,26)</f>
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="3" t="str" cm="1">
-        <f t="array" ref="L8">myDate(2022,1,27)</f>
-        <v>Year 2022 Month 1 Day 27</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
-      <c r="I9" s="3" t="s">
+      <c r="V8" s="4">
+        <f>DATE(2022,1,27)</f>
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3" t="str" cm="1">
-        <f t="array" ref="L9">myDate(2022,1,28)</f>
-        <v>Year 2022 Month 1 Day 28</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="3" t="s">
+      <c r="V9" s="4">
+        <f>DATE(2022,1,28)</f>
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="V10" s="4">
         <f>DATE(2022,1,29)</f>
         <v>43128</v>
       </c>
     </row>
-    <row r="11" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">Add(1,2)</f>
-        <v>3</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="4:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="e" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">Add(1,2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28641B-6257-4E34-BF50-D876E5A10C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951C252-8D47-4FBF-8FF0-F4C5F4512EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>0.666 Hours DataBases</t>
+  </si>
+  <si>
+    <t>1 hour Linear Algebra</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -110,14 +113,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -170,37 +173,37 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -237,16 +240,16 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="10">
-    <tableColumn id="6" xr3:uid="{AD9BA03C-0A3F-4580-8EA2-B2CC68A526CB}" name="Column6" headerRowDxfId="8" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D23052A7-1FBF-405C-AEB7-496D2C97F35D}" name="Column7" headerRowDxfId="6" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{15BE08F2-9836-4D4D-9565-1CE57B5771EC}" name="Column8" headerRowDxfId="4" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{BA90206F-3559-4AE5-96CC-E5B3C6B4DE85}" name="Column9" headerRowDxfId="2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{FC60D3D3-DADF-4796-9C52-F0286D2C6C1B}" name="Column10" headerRowDxfId="0" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{290997B3-2EC0-4908-A8CA-D96066103221}" name="Column1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B5C3F461-1CDE-48BC-B6CE-2EBDC1C613A8}" name="Column2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5F1D165A-F8A7-413C-BCC4-002057DE39D8}" name="Column3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{FC6F4446-EC20-4D6D-9E4F-4A46EE295959}" name="Column4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{1E05D8CE-BFB1-4F6E-99D7-F6BE047E5C12}" name="Column5" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{AD9BA03C-0A3F-4580-8EA2-B2CC68A526CB}" name="Column6" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D23052A7-1FBF-405C-AEB7-496D2C97F35D}" name="Column7" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{15BE08F2-9836-4D4D-9565-1CE57B5771EC}" name="Column8" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{BA90206F-3559-4AE5-96CC-E5B3C6B4DE85}" name="Column9" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{FC60D3D3-DADF-4796-9C52-F0286D2C6C1B}" name="Column10" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{290997B3-2EC0-4908-A8CA-D96066103221}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B5C3F461-1CDE-48BC-B6CE-2EBDC1C613A8}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5F1D165A-F8A7-413C-BCC4-002057DE39D8}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FC6F4446-EC20-4D6D-9E4F-4A46EE295959}" name="Column4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1E05D8CE-BFB1-4F6E-99D7-F6BE047E5C12}" name="Column5" dataDxfId="0">
       <calculatedColumnFormula array="1">myDate(2022,1,26)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -554,17 +557,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="22" width="20.7109375" customWidth="1"/>
+    <col min="13" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="22" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -576,7 +579,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -595,7 +598,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -614,7 +617,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -635,7 +638,7 @@
         <v>43127</v>
       </c>
     </row>
-    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -660,7 +663,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" t="e" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">Add(1,2)</f>
         <v>#NAME?</v>
@@ -671,12 +674,17 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="4">
+        <f>DATE(2022,1,29)</f>
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -688,7 +696,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -700,7 +708,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -712,7 +720,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:22" x14ac:dyDescent="0.2">
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951C252-8D47-4FBF-8FF0-F4C5F4512EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35DDF0-448D-4F49-89CC-1B473C511EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>1 hour Linear Algebra</t>
+  </si>
+  <si>
+    <t>4.5 hours alorithms</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,7 +678,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="U11" s="3" t="s">
         <v>12</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35DDF0-448D-4F49-89CC-1B473C511EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8279AF-1FEA-4264-BA96-44F0D5B864A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>4.5 hours alorithms</t>
+  </si>
+  <si>
+    <t>1 hour run</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +680,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T11" s="3" t="s">
         <v>13</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8279AF-1FEA-4264-BA96-44F0D5B864A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202EEB06-B46D-477E-A52F-582E0094CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -97,10 +97,10 @@
     <t>1 hour Linear Algebra</t>
   </si>
   <si>
-    <t>4.5 hours alorithms</t>
-  </si>
-  <si>
     <t>1 hour run</t>
+  </si>
+  <si>
+    <t>7 hours alorithms</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,10 +681,10 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>12</v>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202EEB06-B46D-477E-A52F-582E0094CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3165C3A-3D87-4AD9-BE7A-206A75C6ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>7 hours alorithms</t>
+  </si>
+  <si>
+    <t>1 hour End_Project</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +682,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="S11" s="3" t="s">
         <v>13</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3165C3A-3D87-4AD9-BE7A-206A75C6ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBEA4B6-E31C-48B0-B28F-65F20E439D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>0.666 Hours DataBases</t>
   </si>
   <si>
-    <t>1 hour Linear Algebra</t>
-  </si>
-  <si>
     <t>1 hour run</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>1 hour End_Project</t>
+  </si>
+  <si>
+    <t>3 hour Linear Algebra</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,20 +683,20 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V11" s="4">
-        <f>DATE(2022,1,29)</f>
-        <v>43128</v>
+        <f>DATE(2022,1,30)</f>
+        <v>43129</v>
       </c>
     </row>
     <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBEA4B6-E31C-48B0-B28F-65F20E439D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B615621-E62A-46BB-A858-99C73E2696D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>3 hour Linear Algebra</t>
+  </si>
+  <si>
+    <t>1.5 hour bjj</t>
+  </si>
+  <si>
+    <t>0.5 hour friends</t>
   </si>
 </sst>
 </file>
@@ -566,8 +572,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,9 +713,16 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="T12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="4">
+        <f>DATE(2022,1,31)</f>
+        <v>43130</v>
+      </c>
     </row>
     <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M13" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B615621-E62A-46BB-A858-99C73E2696D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB54AB-1B05-48CA-8BA8-257974FC6331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>0.5 hour friends</t>
+  </si>
+  <si>
+    <t>0.5 hour algorithms</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,12 +715,14 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="T12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V12" s="4">
         <f>DATE(2022,1,31)</f>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB54AB-1B05-48CA-8BA8-257974FC6331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D9DE0-FC33-43EE-9BB2-9E6041689072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>0.5 hour friends</t>
   </si>
   <si>
-    <t>0.5 hour algorithms</t>
+    <t>7.5 hours algorithms</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D9DE0-FC33-43EE-9BB2-9E6041689072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E8B5D-FBED-4025-A8DD-43F75ACE60E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -106,13 +106,13 @@
     <t>3 hour Linear Algebra</t>
   </si>
   <si>
-    <t>1.5 hour bjj</t>
-  </si>
-  <si>
     <t>0.5 hour friends</t>
   </si>
   <si>
     <t>7.5 hours algorithms</t>
+  </si>
+  <si>
+    <t>3.5 hour bjj</t>
   </si>
 </sst>
 </file>
@@ -716,13 +716,13 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="V12" s="4">
         <f>DATE(2022,1,31)</f>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E8B5D-FBED-4025-A8DD-43F75ACE60E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E1AAA7-B2EF-4218-B3DA-0FC77867474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>3.5 hour bjj</t>
+  </si>
+  <si>
+    <t>11 hours algorithms</t>
+  </si>
+  <si>
+    <t>2 hours network</t>
   </si>
 </sst>
 </file>
@@ -576,7 +582,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,9 +743,15 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="T13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="4">
+        <v>43131</v>
+      </c>
     </row>
     <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E1AAA7-B2EF-4218-B3DA-0FC77867474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFEF565-4ACF-4DA2-BB10-7226F67C3CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2 hours network</t>
+  </si>
+  <si>
+    <t>4 hours algorithms</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,8 +765,13 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="U14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="4">
+        <f>DATE(22,2,2)</f>
+        <v>6607</v>
+      </c>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.2">
       <c r="M15" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFEF565-4ACF-4DA2-BB10-7226F67C3CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7601A0-F1B6-448D-A7CA-265842C9350E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="D6:V15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,9 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="U14" s="3" t="s">
         <v>21</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7601A0-F1B6-448D-A7CA-265842C9350E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1E7B6-1DEB-446C-AA81-F742351F759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>4 hours algorithms</t>
+  </si>
+  <si>
+    <t>1 hour money manager</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,9 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="T14" s="3" t="s">
         <v>20</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1E7B6-1DEB-446C-AA81-F742351F759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCDEC2-4165-4DF6-850E-EF8EE149B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>1 hour money manager</t>
+  </si>
+  <si>
+    <t>2.5 hours seminar bjj</t>
+  </si>
+  <si>
+    <t>1.5 hours Linear Algebra</t>
   </si>
 </sst>
 </file>
@@ -268,7 +274,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="10">
     <tableColumn id="6" xr3:uid="{AD9BA03C-0A3F-4580-8EA2-B2CC68A526CB}" name="Column6" headerRowDxfId="14" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{D23052A7-1FBF-405C-AEB7-496D2C97F35D}" name="Column7" headerRowDxfId="12" dataDxfId="11"/>
@@ -585,10 +591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CCEF79-7962-42CF-8F4C-74587427471D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D6:V15"/>
+  <dimension ref="D6:V16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,8 +771,10 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
+      <c r="R14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="T14" s="3" t="s">
@@ -776,11 +784,11 @@
         <v>21</v>
       </c>
       <c r="V14" s="4">
-        <f>DATE(22,2,2)</f>
-        <v>6607</v>
-      </c>
-    </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.2">
+        <f>DATE(2022,2,2)</f>
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="15" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -789,8 +797,28 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="U15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="4">
+        <f>DATE(2022,2,3)</f>
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="V16" ca="1">myDate(2022,1,26)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCDEC2-4165-4DF6-850E-EF8EE149B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89786768-7D8E-4059-A00B-B351F46515C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
+    <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -130,7 +130,7 @@
     <t>2.5 hours seminar bjj</t>
   </si>
   <si>
-    <t>1.5 hours Linear Algebra</t>
+    <t>4 hours Linear Algebra</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -149,14 +149,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -594,16 +594,16 @@
   <dimension ref="D6:V16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="22" width="20.75" customWidth="1"/>
+    <col min="13" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -615,7 +615,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -634,7 +634,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -653,7 +653,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -674,7 +674,7 @@
         <v>43127</v>
       </c>
     </row>
-    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -699,7 +699,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="e" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">Add(1,2)</f>
         <v>#NAME?</v>
@@ -726,7 +726,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -747,7 +747,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -765,7 +765,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -788,7 +788,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="15" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -796,16 +796,18 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="U15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V15" s="4">
         <f>DATE(2022,2,3)</f>
         <v>43133</v>
       </c>
     </row>
-    <row r="16" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89786768-7D8E-4059-A00B-B351F46515C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46745546-3804-4118-84D6-DA2690472E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="10">
     <tableColumn id="6" xr3:uid="{AD9BA03C-0A3F-4580-8EA2-B2CC68A526CB}" name="Column6" headerRowDxfId="14" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{D23052A7-1FBF-405C-AEB7-496D2C97F35D}" name="Column7" headerRowDxfId="12" dataDxfId="11"/>
@@ -591,10 +591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CCEF79-7962-42CF-8F4C-74587427471D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D6:V16"/>
+  <dimension ref="D6:V17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +815,24 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="V16" ca="1">myDate(2022,1,26)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="4">
+        <f>DATE(2022,2,4)</f>
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="17" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46745546-3804-4118-84D6-DA2690472E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0458C9D-5D56-47FB-913D-5EA65FAF6D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>4 hours Linear Algebra</t>
+  </si>
+  <si>
+    <t>5 hours algorithms</t>
   </si>
 </sst>
 </file>
@@ -593,8 +596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +819,9 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="V16" s="4">
         <f>DATE(2022,2,4)</f>
         <v>43134</v>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0458C9D-5D56-47FB-913D-5EA65FAF6D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F1556-BA51-4B1D-8A9E-5F642926F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -133,7 +133,16 @@
     <t>4 hours Linear Algebra</t>
   </si>
   <si>
-    <t>5 hours algorithms</t>
+    <t>7 hours algorithms</t>
+  </si>
+  <si>
+    <t>3 hours brother tournament bjj</t>
+  </si>
+  <si>
+    <t>1 hour cardio training</t>
+  </si>
+  <si>
+    <t>1.5 hours algorithms</t>
   </si>
 </sst>
 </file>
@@ -597,7 +606,7 @@
   <dimension ref="D6:V17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,10 +843,19 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="2"/>
+      <c r="S17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="4">
+        <f>DATE(2022,2,5)</f>
+        <v>43135</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan-PC\Desktop\Work_Submition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F1556-BA51-4B1D-8A9E-5F642926F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503031F-308B-47BC-B4A3-DE1F423F040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1635" windowWidth="21600" windowHeight="11385" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>1.5 hours algorithms</t>
+  </si>
+  <si>
+    <t>6 hours friends</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -161,14 +164,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -200,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -212,6 +215,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -286,7 +292,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C555716-7EF3-4A6A-BEC0-B04A22F4A814}" name="Table2" displayName="Table2" ref="M6:V22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="10">
     <tableColumn id="6" xr3:uid="{AD9BA03C-0A3F-4580-8EA2-B2CC68A526CB}" name="Column6" headerRowDxfId="14" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{D23052A7-1FBF-405C-AEB7-496D2C97F35D}" name="Column7" headerRowDxfId="12" dataDxfId="11"/>
@@ -603,19 +609,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CCEF79-7962-42CF-8F4C-74587427471D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D6:V17"/>
+  <dimension ref="D6:V22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="22" width="20.7109375" customWidth="1"/>
+    <col min="13" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="22" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -627,7 +633,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -646,7 +652,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -665,7 +671,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -686,7 +692,7 @@
         <v>43127</v>
       </c>
     </row>
-    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -711,7 +717,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" t="e" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">Add(1,2)</f>
         <v>#NAME?</v>
@@ -738,7 +744,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -759,7 +765,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -777,7 +783,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -800,7 +806,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="15" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -819,7 +825,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="16" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -836,13 +842,15 @@
         <v>43134</v>
       </c>
     </row>
-    <row r="17" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="S17" s="3" t="s">
         <v>28</v>
       </c>
@@ -855,6 +863,81 @@
       <c r="V17" s="4">
         <f>DATE(2022,2,5)</f>
         <v>43135</v>
+      </c>
+    </row>
+    <row r="18" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="4">
+        <f>DATE(2022,2,6)</f>
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="19" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="4" t="e" cm="1">
+        <f t="array" aca="1" ref="V19" ca="1">myDate(2022,1,26)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="4" t="e" cm="1">
+        <f t="array" aca="1" ref="V20" ca="1">myDate(2022,1,26)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4" t="e" cm="1">
+        <f t="array" aca="1" ref="V21" ca="1">myDate(2022,1,26)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="5" t="e" cm="1">
+        <f t="array" aca="1" ref="V22" ca="1">myDate(2022,1,26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503031F-308B-47BC-B4A3-DE1F423F040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C636E9-93E3-40C9-A806-BE3555D26F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>6 hours friends</t>
+  </si>
+  <si>
+    <t>2 hours algorithms pomadoro</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,7 +877,9 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="V18" s="4">
         <f>DATE(2022,2,6)</f>
         <v>43136</v>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C636E9-93E3-40C9-A806-BE3555D26F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86236350-BA2A-4E9C-9880-89521E0B8432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -615,7 +615,7 @@
   <dimension ref="D6:V22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,7 +876,9 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="U18" s="3" t="s">
         <v>30</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86236350-BA2A-4E9C-9880-89521E0B8432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13118F1-6CA4-46A8-B9FE-BF6F2603A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>2 hours algorithms pomadoro</t>
+  </si>
+  <si>
+    <t>6.5 hours algorithms pomadoro</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="D6:V22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -896,10 +899,12 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="4" t="e" cm="1">
-        <f t="array" aca="1" ref="V19" ca="1">myDate(2022,1,26)</f>
-        <v>#NAME?</v>
+      <c r="U19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="4">
+        <f>DATE(2022,2,7)</f>
+        <v>43137</v>
       </c>
     </row>
     <row r="20" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13118F1-6CA4-46A8-B9FE-BF6F2603A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9C51C-E253-4A9D-8CEF-8E93F42DBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>6.5 hours algorithms pomadoro</t>
+  </si>
+  <si>
+    <t>2 hour bjj</t>
+  </si>
+  <si>
+    <t>1 hour kickboxing</t>
   </si>
 </sst>
 </file>
@@ -617,8 +623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -897,8 +903,12 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="U19" s="3" t="s">
         <v>31</v>
       </c>
@@ -917,9 +927,9 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="4" t="e" cm="1">
-        <f t="array" aca="1" ref="V20" ca="1">myDate(2022,1,26)</f>
-        <v>#NAME?</v>
+      <c r="V20" s="4">
+        <f>DATE(2022,2,8)</f>
+        <v>43138</v>
       </c>
     </row>
     <row r="21" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9C51C-E253-4A9D-8CEF-8E93F42DBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A25EF4-650A-4B6C-A0E9-BA7E9ADE3288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>1 hour kickboxing</t>
+  </si>
+  <si>
+    <t>1 hour friends</t>
+  </si>
+  <si>
+    <t>5 hours algorithms pomodoro</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <dimension ref="D6:V22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,7 +908,9 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="S19" s="3" t="s">
         <v>33</v>
       </c>
@@ -926,7 +934,9 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="V20" s="4">
         <f>DATE(2022,2,8)</f>
         <v>43138</v>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A25EF4-650A-4B6C-A0E9-BA7E9ADE3288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8F3A3-C4C4-4653-BA29-FD2A9F9E01DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>5 hours algorithms pomodoro</t>
+  </si>
+  <si>
+    <t>1 hour linear algebra</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,8 +935,12 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="U20" s="3" t="s">
         <v>35</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8F3A3-C4C4-4653-BA29-FD2A9F9E01DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4F05E8-23B5-416E-B1C0-1260A6C19515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -166,7 +166,10 @@
     <t>5 hours algorithms pomodoro</t>
   </si>
   <si>
-    <t>1 hour linear algebra</t>
+    <t>6 hours algorithms pomodoro</t>
+  </si>
+  <si>
+    <t>1 hour linear algebra pomodoro</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>35</v>
@@ -958,10 +961,12 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="4" t="e" cm="1">
-        <f t="array" aca="1" ref="V21" ca="1">myDate(2022,1,26)</f>
-        <v>#NAME?</v>
+      <c r="U21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="4">
+        <f>DATE(2022,2,9)</f>
+        <v>43139</v>
       </c>
     </row>
     <row r="22" spans="13:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4F05E8-23B5-416E-B1C0-1260A6C19515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F669C2-ED09-4C2C-A4C4-B133687D56FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>1 hour linear algebra pomodoro</t>
+  </si>
+  <si>
+    <t>1 hour bjj</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="D6:V22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -960,7 +963,9 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="U21" s="3" t="s">
         <v>36</v>
       </c>

--- a/Work_submition.xlsx
+++ b/Work_submition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Work_Submition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F669C2-ED09-4C2C-A4C4-B133687D56FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B478500-EDA0-45C3-9106-B7B05C1ECB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="295" xr2:uid="{5EC1CB56-93BF-4BDB-91DF-24071E665A84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>1.5 hours Money Manager</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>1 hour bjj</t>
+  </si>
+  <si>
+    <t>3 hours algorithms test fucking epic</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -242,9 +245,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,8 +638,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D6:V22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -982,11 +982,15 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="V22" ca="1">myDate(2022,1,26)</f>
-        <v>#NAME?</v>
+      <c r="T22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" s="4">
+        <f>DATE(2022,2,10)</f>
+        <v>43140</v>
       </c>
     </row>
   </sheetData>
